--- a/biology/Zoologie/Cuora/Cuora.xlsx
+++ b/biology/Zoologie/Cuora/Cuora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cuora est un genre de tortues de la famille des Geoemydidae[1]. Elles sont appelées tortues-boîtes asiatiques.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cuora est un genre de tortues de la famille des Geoemydidae. Elles sont appelées tortues-boîtes asiatiques.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie du Sud-Est en Asie de l'Est et dans l'est de l'Asie du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie du Sud-Est en Asie de l'Est et dans l'est de l'Asie du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de Cuora sont caractérisées par une carapace à charnière ventrale. La longueur de leur carapace peut atteindre jusqu'à 30 cm. Elles peuvent se rétracter dans leur carapace lorsqu'elles sont menacées[2].  
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de Cuora sont caractérisées par une carapace à charnière ventrale. La longueur de leur carapace peut atteindre jusqu'à 30 cm. Elles peuvent se rétracter dans leur carapace lorsqu'elles sont menacées.  
 Les Cuora sont en général de couleur brune. Certaines espèces possèdent des teintes jaune clair, blanche ou orange ou des bandes dans la longueur.
 </t>
         </is>
@@ -574,7 +590,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tortues boites asiatiques sont semi-aquatiques. Elles passent le plus clair de leur temps sur les bords des étangs peu profonds et denses en végétation. Elles sont omnivores, mais leur régime dans la nature consiste principalement en des plantes aquatiques et occasionnellement des invertébrés, des poissons ou même des charognes.
 </t>
@@ -605,9 +623,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon TFTSG  (23 novembre 2011)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon TFTSG  (23 novembre 2011) :
 Cuora amboinensis (Riche, 1801)
 Cuora aurocapitata Luo &amp; Zong, 1988
 Cuora bourreti Obst &amp; Reimann, 1994
@@ -647,7 +667,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Gray, 1856 "1855" : On some New Species of Freshwater Tortoises from North America, Ceylon and Australia, in the collection of the British Museum. Proceedings of the Zoological Society of London, vol. 23, p. 197-202 (texte intégral).</t>
         </is>
